--- a/testcases/Initiation with the ticket booking process.xlsx
+++ b/testcases/Initiation with the ticket booking process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Supratik\Documents\workspace-spring-tool-suite-4-4.10.0.RELEASE\happyfaresdemo\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09EC082-DF5E-4C63-9020-31917BDF59E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4A7ADB-FD92-471B-B2A9-C269713060A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="101">
   <si>
     <t>CaseID</t>
   </si>
@@ -334,10 +334,10 @@
     <t>Desc 36</t>
   </si>
   <si>
-    <t>/html/body/div[2]/main/div/div[1]/div/div[1]/div/div/div[2]/div/form/div[1]/div/div[1]/div/div/div/input</t>
-  </si>
-  <si>
     <t>/html/body/div[2]/main/div/div[1]/div/div[1]/div/div/div[2]/div/form/div[1]/div/div[2]/div/div/div/input</t>
+  </si>
+  <si>
+    <t>//form[@class='row flight-search-bg border m-0 ng-pristine ng-valid']//child::input[@id='anguScroll_value' and @placeholder='Select Origin City']</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -867,7 +867,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -887,7 +887,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>75</v>
@@ -973,7 +973,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>75</v>
@@ -1080,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>78</v>
